--- a/Camera Location data Sheet.xlsx
+++ b/Camera Location data Sheet.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="37">
   <si>
     <t>Site</t>
   </si>
@@ -111,12 +111,42 @@
   </si>
   <si>
     <t>NDS4C2</t>
+  </si>
+  <si>
+    <t>Panoche</t>
+  </si>
+  <si>
+    <t>HDPS1C1</t>
+  </si>
+  <si>
+    <t>HDPS1C2</t>
+  </si>
+  <si>
+    <t>MDPS1C1</t>
+  </si>
+  <si>
+    <t>MDPS1C2</t>
+  </si>
+  <si>
+    <t>LDPS1C1</t>
+  </si>
+  <si>
+    <t>LDPS1C2</t>
+  </si>
+  <si>
+    <t>NDPS1C1</t>
+  </si>
+  <si>
+    <t>NDPS1C2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.00000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -146,8 +176,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -829,6 +860,190 @@
         <v>-119.67439</v>
       </c>
     </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>36.696019999999997</v>
+      </c>
+      <c r="G18">
+        <v>-120.79646</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>36.695920000000001</v>
+      </c>
+      <c r="G19">
+        <v>-120.79678</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>36.695950000000003</v>
+      </c>
+      <c r="G20">
+        <v>-120.79810000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>36.695950000000003</v>
+      </c>
+      <c r="G21">
+        <v>-120.79779000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>36.695279999999997</v>
+      </c>
+      <c r="G22">
+        <v>-120.79695</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>36.695259999999998</v>
+      </c>
+      <c r="G23">
+        <v>-120.79721000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>36.693800000000003</v>
+      </c>
+      <c r="G24">
+        <v>-120.79295</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>36.693730000000002</v>
+      </c>
+      <c r="G25">
+        <v>-120.79271</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
